--- a/Master_dataBase.xlsx
+++ b/Master_dataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\SIH\Interlink_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85F01EA-D777-476C-8B85-0F36E2EA6F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA99246-1F41-4A5B-B20D-D2B721D4AB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="15336" windowHeight="8016" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State_sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="127">
   <si>
     <t xml:space="preserve">ST_Name </t>
   </si>
@@ -813,7 +813,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1014,6 +1016,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -1025,6 +1030,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -1036,6 +1044,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -1047,6 +1058,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -1072,6 +1086,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -1083,6 +1100,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -1094,6 +1114,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -1114,7 +1137,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A8" sqref="A8:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1153,6 +1176,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1164,6 +1190,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -1175,6 +1204,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1186,6 +1218,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="B6" t="s">
         <v>94</v>
       </c>
@@ -1211,6 +1246,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" t="s">
         <v>100</v>
       </c>
@@ -1222,6 +1260,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B10" t="s">
         <v>103</v>
       </c>
@@ -1233,6 +1274,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" t="s">
         <v>106</v>
       </c>
@@ -1244,6 +1288,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B12" t="s">
         <v>109</v>
       </c>
@@ -1263,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,6 +1440,9 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -1428,6 +1478,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -1463,6 +1516,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -1498,6 +1554,9 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
       <c r="C6">
         <v>1</v>
       </c>
@@ -1542,7 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A299FD-9A30-453A-B6C6-CCF7F348F87D}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
